--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1527,28 +1527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.7168109020665</v>
+        <v>195.1681289569424</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.3795310272815</v>
+        <v>267.0376442489374</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.8324319257861</v>
+        <v>241.5519462715845</v>
       </c>
       <c r="AD2" t="n">
-        <v>126716.8109020665</v>
+        <v>195168.1289569424</v>
       </c>
       <c r="AE2" t="n">
-        <v>173379.5310272815</v>
+        <v>267037.6442489374</v>
       </c>
       <c r="AF2" t="n">
         <v>1.313062064555928e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>156832.4319257861</v>
+        <v>241551.9462715845</v>
       </c>
     </row>
     <row r="3">
@@ -1633,28 +1633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.3580955560925</v>
+        <v>174.26754751891</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.5204767486302</v>
+        <v>238.440546656859</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.1508031782897</v>
+        <v>215.6841155374064</v>
       </c>
       <c r="AD3" t="n">
-        <v>125358.0955560925</v>
+        <v>174267.54751891</v>
       </c>
       <c r="AE3" t="n">
-        <v>171520.4767486302</v>
+        <v>238440.546656859</v>
       </c>
       <c r="AF3" t="n">
         <v>1.40161608155967e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>155150.8031782897</v>
+        <v>215684.1155374064</v>
       </c>
     </row>
   </sheetData>
@@ -1930,28 +1930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.5958649605625</v>
+        <v>171.6449944424296</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.4268739348433</v>
+        <v>234.8522538387442</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.5931512295321</v>
+        <v>212.4382843496508</v>
       </c>
       <c r="AD2" t="n">
-        <v>113595.8649605625</v>
+        <v>171644.9944424296</v>
       </c>
       <c r="AE2" t="n">
-        <v>155426.8739348433</v>
+        <v>234852.2538387442</v>
       </c>
       <c r="AF2" t="n">
         <v>1.595252527689117e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>140593.1512295321</v>
+        <v>212438.2843496508</v>
       </c>
     </row>
     <row r="3">
@@ -2036,28 +2036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.670064951658</v>
+        <v>171.7191944335251</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.5283976361326</v>
+        <v>234.9537775400336</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.6849856512598</v>
+        <v>212.5301187713785</v>
       </c>
       <c r="AD3" t="n">
-        <v>113670.064951658</v>
+        <v>171719.1944335251</v>
       </c>
       <c r="AE3" t="n">
-        <v>155528.3976361326</v>
+        <v>234953.7775400336</v>
       </c>
       <c r="AF3" t="n">
         <v>1.586831228747562e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>140684.9856512598</v>
+        <v>212530.1187713785</v>
       </c>
     </row>
   </sheetData>
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.8898904124448</v>
+        <v>155.5999793033724</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.9879519451675</v>
+        <v>212.8987562693872</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.7687509174651</v>
+        <v>192.5799977763789</v>
       </c>
       <c r="AD2" t="n">
-        <v>108889.8904124448</v>
+        <v>155599.9793033724</v>
       </c>
       <c r="AE2" t="n">
-        <v>148987.9519451675</v>
+        <v>212898.7562693872</v>
       </c>
       <c r="AF2" t="n">
         <v>2.309339448354997e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>134768.7509174651</v>
+        <v>192579.9977763788</v>
       </c>
     </row>
   </sheetData>
@@ -2630,28 +2630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.6073164837811</v>
+        <v>157.9528473184705</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.3378100634594</v>
+        <v>216.1180540888537</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.8943418749946</v>
+        <v>195.4920503302694</v>
       </c>
       <c r="AD2" t="n">
-        <v>110607.3164837811</v>
+        <v>157952.8473184705</v>
       </c>
       <c r="AE2" t="n">
-        <v>151337.8100634594</v>
+        <v>216118.0540888537</v>
       </c>
       <c r="AF2" t="n">
         <v>2.00365655533983e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>136894.3418749946</v>
+        <v>195492.0503302694</v>
       </c>
     </row>
   </sheetData>
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7097561758467</v>
+        <v>163.1830499041282</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.3732402188067</v>
+        <v>223.2742480068002</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3081450120056</v>
+        <v>201.9652671444707</v>
       </c>
       <c r="AD2" t="n">
-        <v>107709.7561758467</v>
+        <v>163183.0499041282</v>
       </c>
       <c r="AE2" t="n">
-        <v>147373.2402188067</v>
+        <v>223274.2480068002</v>
       </c>
       <c r="AF2" t="n">
         <v>2.551836362065272e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>133308.1450120056</v>
+        <v>201965.2671444707</v>
       </c>
     </row>
   </sheetData>
@@ -3224,28 +3224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.1436479687574</v>
+        <v>172.655137073967</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.8588159819929</v>
+        <v>236.2343755515607</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.6477289830642</v>
+        <v>213.6884983060165</v>
       </c>
       <c r="AD2" t="n">
-        <v>124143.6479687574</v>
+        <v>172655.137073967</v>
       </c>
       <c r="AE2" t="n">
-        <v>169858.8159819929</v>
+        <v>236234.3755515607</v>
       </c>
       <c r="AF2" t="n">
         <v>1.515870517493074e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>153647.7289830642</v>
+        <v>213688.4983060165</v>
       </c>
     </row>
     <row r="3">
@@ -3330,28 +3330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.8607012213618</v>
+        <v>172.0801079955408</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.7892345906199</v>
+        <v>235.4475953979658</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.9209286928979</v>
+        <v>212.9768073460276</v>
       </c>
       <c r="AD3" t="n">
-        <v>113860.7012213618</v>
+        <v>172080.1079955408</v>
       </c>
       <c r="AE3" t="n">
-        <v>155789.2345906199</v>
+        <v>235447.5953979658</v>
       </c>
       <c r="AF3" t="n">
         <v>1.559752741078062e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>140920.9286928979</v>
+        <v>212976.8073460276</v>
       </c>
     </row>
   </sheetData>
@@ -3627,28 +3627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.3248987024733</v>
+        <v>162.2393361291916</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.1608582969953</v>
+        <v>221.9830171862192</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.9707693648415</v>
+        <v>200.7972695811516</v>
       </c>
       <c r="AD2" t="n">
-        <v>116324.8987024733</v>
+        <v>162239.3361291916</v>
       </c>
       <c r="AE2" t="n">
-        <v>159160.8582969953</v>
+        <v>221983.0171862192</v>
       </c>
       <c r="AF2" t="n">
         <v>2.704715903542641e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>143970.7693648415</v>
+        <v>200797.2695811516</v>
       </c>
     </row>
   </sheetData>
@@ -3924,28 +3924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.2267119713708</v>
+        <v>169.7232092541475</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.5535384122653</v>
+        <v>232.2227825609592</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.8986042199854</v>
+        <v>210.0597661201306</v>
       </c>
       <c r="AD2" t="n">
-        <v>112226.7119713708</v>
+        <v>169723.2092541475</v>
       </c>
       <c r="AE2" t="n">
-        <v>153553.5384122653</v>
+        <v>232222.7825609592</v>
       </c>
       <c r="AF2" t="n">
         <v>1.765222461207554e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>138898.6042199854</v>
+        <v>210059.7661201306</v>
       </c>
     </row>
   </sheetData>
@@ -4221,28 +4221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.0303256075775</v>
+        <v>170.9027027893756</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.6530780422543</v>
+        <v>233.8366176514397</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.8932053309021</v>
+        <v>211.519579054608</v>
       </c>
       <c r="AD2" t="n">
-        <v>113030.3256075775</v>
+        <v>170902.7027893756</v>
       </c>
       <c r="AE2" t="n">
-        <v>154653.0780422543</v>
+        <v>233836.6176514397</v>
       </c>
       <c r="AF2" t="n">
         <v>1.659628946554185e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>139893.2053309021</v>
+        <v>211519.579054608</v>
       </c>
     </row>
   </sheetData>
@@ -4518,28 +4518,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.7750341133673</v>
+        <v>184.3520439739936</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.0909504767242</v>
+        <v>252.2385996032819</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.6668316944395</v>
+        <v>228.1653016763161</v>
       </c>
       <c r="AD2" t="n">
-        <v>125775.0341133673</v>
+        <v>184352.0439739936</v>
       </c>
       <c r="AE2" t="n">
-        <v>172090.9504767242</v>
+        <v>252238.5996032819</v>
       </c>
       <c r="AF2" t="n">
         <v>1.3815648927728e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155666.8316944395</v>
+        <v>228165.3016763161</v>
       </c>
     </row>
     <row r="3">
@@ -4624,28 +4624,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.8813202970148</v>
+        <v>173.4241647388604</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.1856906364635</v>
+        <v>237.2865931297734</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.184108933665</v>
+        <v>214.6402937153616</v>
       </c>
       <c r="AD3" t="n">
-        <v>114881.3202970148</v>
+        <v>173424.1647388604</v>
       </c>
       <c r="AE3" t="n">
-        <v>157185.6906364635</v>
+        <v>237286.5931297734</v>
       </c>
       <c r="AF3" t="n">
         <v>1.458335247623564e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>142184.108933665</v>
+        <v>214640.2937153616</v>
       </c>
     </row>
   </sheetData>
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.1171734900573</v>
+        <v>158.6485636283825</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.0354189127498</v>
+        <v>217.0699638369123</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.5253719148091</v>
+        <v>196.3531111479872</v>
       </c>
       <c r="AD2" t="n">
-        <v>111117.1734900573</v>
+        <v>158648.5636283825</v>
       </c>
       <c r="AE2" t="n">
-        <v>152035.4189127498</v>
+        <v>217069.9638369123</v>
       </c>
       <c r="AF2" t="n">
         <v>1.920839074339912e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>137525.371914809</v>
+        <v>196353.1111479872</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.5496880535962</v>
+        <v>156.4870350891252</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.8907161860079</v>
+        <v>214.1124651295929</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.5853566061976</v>
+        <v>193.677871966418</v>
       </c>
       <c r="AD2" t="n">
-        <v>109549.6880535962</v>
+        <v>156487.0350891252</v>
       </c>
       <c r="AE2" t="n">
-        <v>149890.7161860079</v>
+        <v>214112.4651295929</v>
       </c>
       <c r="AF2" t="n">
         <v>2.184283886155584e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>135585.3566061976</v>
+        <v>193677.871966418</v>
       </c>
     </row>
   </sheetData>
@@ -8240,28 +8240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.3303055850036</v>
+        <v>154.8943080920453</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.2223032971225</v>
+        <v>211.9332257860332</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.0761747017946</v>
+        <v>191.7066161672254</v>
       </c>
       <c r="AD2" t="n">
-        <v>108330.3055850036</v>
+        <v>154894.3080920453</v>
       </c>
       <c r="AE2" t="n">
-        <v>148222.3032971225</v>
+        <v>211933.2257860332</v>
       </c>
       <c r="AF2" t="n">
         <v>2.419877867365509e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>134076.1747017946</v>
+        <v>191706.6161672254</v>
       </c>
     </row>
   </sheetData>
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.6284470460344</v>
+        <v>179.3841243737945</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.2079424153774</v>
+        <v>245.4412728371483</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.1087984375391</v>
+        <v>222.0167022366321</v>
       </c>
       <c r="AD2" t="n">
-        <v>115628.4470460344</v>
+        <v>179384.1243737945</v>
       </c>
       <c r="AE2" t="n">
-        <v>158207.9424153774</v>
+        <v>245441.2728371483</v>
       </c>
       <c r="AF2" t="n">
         <v>2.835478927031149e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>143108.7984375391</v>
+        <v>222016.7022366321</v>
       </c>
     </row>
   </sheetData>
@@ -8834,28 +8834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.6312023268825</v>
+        <v>170.319648061404</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.1069799615311</v>
+        <v>233.0388564500702</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.3992260845496</v>
+        <v>210.797955062632</v>
       </c>
       <c r="AD2" t="n">
-        <v>112631.2023268825</v>
+        <v>170319.648061404</v>
       </c>
       <c r="AE2" t="n">
-        <v>154106.9799615311</v>
+        <v>233038.8564500702</v>
       </c>
       <c r="AF2" t="n">
         <v>1.710312922341027e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>139399.2260845496</v>
+        <v>210797.955062632</v>
       </c>
     </row>
   </sheetData>
@@ -9131,28 +9131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.0937143663535</v>
+        <v>183.410201897627</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.1587387411545</v>
+        <v>250.9499297232578</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.8235889385449</v>
+        <v>226.9996206409815</v>
       </c>
       <c r="AD2" t="n">
-        <v>125093.7143663535</v>
+        <v>183410.201897627</v>
       </c>
       <c r="AE2" t="n">
-        <v>171158.7387411545</v>
+        <v>250949.9297232578</v>
       </c>
       <c r="AF2" t="n">
         <v>1.434030242236264e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>154823.5889385449</v>
+        <v>226999.6206409815</v>
       </c>
     </row>
     <row r="3">
@@ -9237,28 +9237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.4682930566456</v>
+        <v>173.1167826325209</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.3030097135718</v>
+        <v>236.8660193711385</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.0495294883312</v>
+        <v>214.2598589259717</v>
       </c>
       <c r="AD3" t="n">
-        <v>124468.2930566456</v>
+        <v>173116.7826325209</v>
       </c>
       <c r="AE3" t="n">
-        <v>170303.0097135718</v>
+        <v>236866.0193711385</v>
       </c>
       <c r="AF3" t="n">
         <v>1.484722754745984e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>154049.5294883312</v>
+        <v>214259.8589259717</v>
       </c>
     </row>
   </sheetData>
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.3170010855858</v>
+        <v>196.524686589745</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.4102024162084</v>
+        <v>268.8937462492358</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.0012287119837</v>
+        <v>243.2309045020306</v>
       </c>
       <c r="AD2" t="n">
-        <v>133317.0010855858</v>
+        <v>196524.686589745</v>
       </c>
       <c r="AE2" t="n">
-        <v>182410.2024162085</v>
+        <v>268893.7462492358</v>
       </c>
       <c r="AF2" t="n">
         <v>2.87654786271822e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>165001.2287119837</v>
+        <v>243230.9045020306</v>
       </c>
     </row>
   </sheetData>
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.1432636577574</v>
+        <v>157.2914831526249</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.7028725143283</v>
+        <v>215.2131464598166</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.3200018744118</v>
+        <v>194.6735058153014</v>
       </c>
       <c r="AD2" t="n">
-        <v>110143.2636577574</v>
+        <v>157291.4831526249</v>
       </c>
       <c r="AE2" t="n">
-        <v>150702.8725143283</v>
+        <v>215213.1464598165</v>
       </c>
       <c r="AF2" t="n">
         <v>2.080332045409184e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>136320.0018744119</v>
+        <v>194673.5058153014</v>
       </c>
     </row>
   </sheetData>
@@ -10128,28 +10128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.648087746374</v>
+        <v>159.3555076842799</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.7618392205259</v>
+        <v>218.0372358823612</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.1824636879485</v>
+        <v>197.2280681069936</v>
       </c>
       <c r="AD2" t="n">
-        <v>111648.087746374</v>
+        <v>159355.5076842799</v>
       </c>
       <c r="AE2" t="n">
-        <v>152761.8392205259</v>
+        <v>218037.2358823612</v>
       </c>
       <c r="AF2" t="n">
         <v>1.841275574212803e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>138182.4636879485</v>
+        <v>197228.0681069937</v>
       </c>
     </row>
   </sheetData>
